--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ltb-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ltb-Tnfrsf1a.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>27.89620666666667</v>
+        <v>0.6577333333333334</v>
       </c>
       <c r="H2">
-        <v>83.68862</v>
+        <v>1.9732</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>71.19677366666667</v>
+        <v>14.65767833333333</v>
       </c>
       <c r="N2">
-        <v>213.590321</v>
+        <v>43.973035</v>
       </c>
       <c r="O2">
-        <v>0.5967372004470155</v>
+        <v>0.2345581433878666</v>
       </c>
       <c r="P2">
-        <v>0.5967372004470156</v>
+        <v>0.2345581433878665</v>
       </c>
       <c r="Q2">
-        <v>1986.119912205225</v>
+        <v>9.640843629111114</v>
       </c>
       <c r="R2">
-        <v>17875.07920984702</v>
+        <v>86.76759266200001</v>
       </c>
       <c r="S2">
-        <v>0.5967372004470155</v>
+        <v>0.2345581433878666</v>
       </c>
       <c r="T2">
-        <v>0.5967372004470156</v>
+        <v>0.2345581433878665</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>27.89620666666667</v>
+        <v>0.6577333333333334</v>
       </c>
       <c r="H3">
-        <v>83.68862</v>
+        <v>1.9732</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.69537100000001</v>
+        <v>31.695371</v>
       </c>
       <c r="N3">
-        <v>95.08611300000001</v>
+        <v>95.086113</v>
       </c>
       <c r="O3">
-        <v>0.2656553939680093</v>
+        <v>0.5072022462686253</v>
       </c>
       <c r="P3">
-        <v>0.2656553939680093</v>
+        <v>0.5072022462686253</v>
       </c>
       <c r="Q3">
-        <v>884.1806197926735</v>
+        <v>20.84710201906667</v>
       </c>
       <c r="R3">
-        <v>7957.625578134061</v>
+        <v>187.6239181716</v>
       </c>
       <c r="S3">
-        <v>0.2656553939680093</v>
+        <v>0.5072022462686253</v>
       </c>
       <c r="T3">
-        <v>0.2656553939680093</v>
+        <v>0.5072022462686253</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>27.89620666666667</v>
+        <v>0.6577333333333334</v>
       </c>
       <c r="H4">
-        <v>83.68862</v>
+        <v>1.9732</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.417953</v>
+        <v>16.13754733333333</v>
       </c>
       <c r="N4">
-        <v>49.25385900000001</v>
+        <v>48.41264200000001</v>
       </c>
       <c r="O4">
-        <v>0.1376074055849752</v>
+        <v>0.2582396103435082</v>
       </c>
       <c r="P4">
-        <v>0.1376074055849752</v>
+        <v>0.2582396103435082</v>
       </c>
       <c r="Q4">
-        <v>457.99860993162</v>
+        <v>10.61420279937778</v>
       </c>
       <c r="R4">
-        <v>4121.987489384581</v>
+        <v>95.52782519440001</v>
       </c>
       <c r="S4">
-        <v>0.1376074055849752</v>
+        <v>0.2582396103435082</v>
       </c>
       <c r="T4">
-        <v>0.1376074055849752</v>
+        <v>0.2582396103435082</v>
       </c>
     </row>
   </sheetData>
